--- a/ApolloQA/Data/RatingManual/SC/OR00024.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/OR00024.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00024" sheetId="1" r:id="R3443932752764cff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00024" sheetId="1" r:id="R7fe562ce1c374352"/>
   </x:sheets>
 </x:workbook>
 </file>
